--- a/assignments/Lab1_Tables.xlsx
+++ b/assignments/Lab1_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18165\Documents\R\Lab\biostatlab\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEA72F5-0C2E-4C69-B511-00CB29EBCBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82850573-353A-4305-B36F-DB1BA7E9CD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1170" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88FCE164-9CAB-442C-BF1F-7B59EF5D0E6A}"/>
   </bookViews>
@@ -1098,18 +1098,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1142,72 +1130,15 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1217,12 +1148,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1237,6 +1162,81 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,109 +1560,109 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1685,681 +1685,745 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="18" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="11" style="18" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="14" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="11" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="45" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="40" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="40" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="40" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="40" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="40" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:9" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="1:9" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="44" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="45" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="40" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="40" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="40" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="40" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43" t="s">
+      <c r="A34" s="35"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="41"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
+      <c r="A46" s="23"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
+      <c r="A47" s="25"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="48"/>
+      <c r="A48" s="23"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="48"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
+      <c r="A50" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="I29:I34"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="A7:A8"/>
@@ -2376,70 +2440,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="I29:I34"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assignments/Lab1_Tables.xlsx
+++ b/assignments/Lab1_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18165\Documents\R\Lab\biostatlab\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82850573-353A-4305-B36F-DB1BA7E9CD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353E46E7-C65F-4617-B1CA-4488D290512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1170" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{88FCE164-9CAB-442C-BF1F-7B59EF5D0E6A}"/>
+    <workbookView xWindow="-28920" yWindow="-1170" windowWidth="29040" windowHeight="15840" xr2:uid="{88FCE164-9CAB-442C-BF1F-7B59EF5D0E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1, Frequency Table" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Frequency</t>
   </si>
@@ -883,6 +883,9 @@
       </rPr>
       <t>university</t>
     </r>
+  </si>
+  <si>
+    <t>Level</t>
   </si>
 </sst>
 </file>
@@ -1199,22 +1202,34 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1224,18 +1239,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1554,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797BFBE2-A794-4206-9D17-98762DED72EA}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1566,7 +1569,9 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1681,11 +1686,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAB5EF2-71BC-4777-BE3F-BE59D5B98BCB}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1867,12 +1872,12 @@
       <c r="C10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
@@ -1880,12 +1885,12 @@
       <c r="C11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
@@ -1899,75 +1904,75 @@
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="38"/>
-      <c r="F12" s="46"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="38"/>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
@@ -1977,7 +1982,7 @@
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="39"/>
-      <c r="F18" s="48"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="39"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
@@ -2107,25 +2112,25 @@
       <c r="C26" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35"/>
@@ -2133,12 +2138,12 @@
       <c r="C28" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
@@ -2158,56 +2163,56 @@
       <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
     </row>
     <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
     </row>
     <row r="33" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="35"/>
@@ -2245,15 +2250,15 @@
       <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="35"/>
@@ -2360,6 +2365,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="I29:I34"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="G29:G34"/>
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="I42:I43"/>
     <mergeCell ref="A44:A45"/>
@@ -2376,70 +2445,6 @@
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="I29:I34"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assignments/Lab1_Tables.xlsx
+++ b/assignments/Lab1_Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18165\Documents\R\Lab\biostatlab\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353E46E7-C65F-4617-B1CA-4488D290512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B2919-D6B0-4665-9AC0-1DC040427161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1170" windowWidth="29040" windowHeight="15840" xr2:uid="{88FCE164-9CAB-442C-BF1F-7B59EF5D0E6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88FCE164-9CAB-442C-BF1F-7B59EF5D0E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1, Frequency Table" sheetId="1" r:id="rId1"/>
@@ -892,7 +892,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,8 +972,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -986,8 +993,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -996,24 +1021,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1083,74 +1090,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1160,85 +1197,193 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1558,116 +1703,116 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="59" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="71" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="4" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1687,684 +1832,748 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="14" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="11" style="14" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="20" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="75"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="75"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="19" t="s">
+      <c r="A16" s="75"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="19" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="20" t="s">
+      <c r="A23" s="74"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="21" t="s">
+      <c r="A27" s="75"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="22" t="s">
+      <c r="A28" s="74"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="19" t="s">
+      <c r="A30" s="75"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="75"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="19" t="s">
+      <c r="A32" s="75"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="19" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="35"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="20" t="s">
+      <c r="A34" s="74"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="34"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
+      <c r="A42" s="73"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="34"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
+      <c r="A44" s="73"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="35"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="10"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+      <c r="A47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="10"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
+      <c r="A49" s="10"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
+      <c r="A50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="I29:I34"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="F29:F34"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="D12:D18"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="F12:F18"/>
+    <mergeCell ref="G12:G18"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="I12:I18"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="A7:A8"/>
@@ -2381,70 +2590,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="I29:I34"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assignments/Lab1_Tables.xlsx
+++ b/assignments/Lab1_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18165\Documents\R\Lab\biostatlab\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B2919-D6B0-4665-9AC0-1DC040427161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFA2418-209D-4C46-9C86-9F2DA59B39A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88FCE164-9CAB-442C-BF1F-7B59EF5D0E6A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{88FCE164-9CAB-442C-BF1F-7B59EF5D0E6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1, Frequency Table" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
   <si>
     <t>Frequency</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>9.  missing</t>
   </si>
 </sst>
 </file>
@@ -1203,187 +1206,187 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1702,7 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797BFBE2-A794-4206-9D17-98762DED72EA}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1713,106 +1716,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48"/>
-      <c r="B1" s="49" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1829,13 +1832,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAB5EF2-71BC-4777-BE3F-BE59D5B98BCB}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,7 +1883,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="27.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1897,7 +1900,7 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="43" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1914,7 +1917,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="43" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1931,67 +1934,67 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="56" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="74"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="56" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:9" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="43" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2008,156 +2011,152 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="64" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="74"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="55"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B13" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="52"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="60"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="75"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="60"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="75"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="74"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="60"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="55"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="72" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+    </row>
+    <row r="20" spans="1:9" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2166,12 +2165,12 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="72" t="s">
-        <v>59</v>
+    <row r="21" spans="1:9" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>28</v>
@@ -2183,59 +2182,59 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+    <row r="22" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B23" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="74"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="52"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="55"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="72" t="s">
+      <c r="D24" s="53"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+    </row>
+    <row r="25" spans="1:9" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>56</v>
@@ -2247,188 +2246,194 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
+    <row r="26" spans="1:9" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B27" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="75"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="67"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="61"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="74"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="68"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="55"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="73" t="s">
+      <c r="D29" s="69"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B30" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="75"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+    </row>
+    <row r="32" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="60"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+    </row>
+    <row r="34" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="74"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="60"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="55"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="43"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="75"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="74"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="72"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="72"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
@@ -2439,7 +2444,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="72"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="4"/>
@@ -2449,58 +2454,66 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="73"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="74"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="73"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="74"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="43"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="54"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="55"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="54"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="55"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
+      <c r="A47" s="10"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
+      <c r="A48" s="12"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
@@ -2508,72 +2521,11 @@
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
     </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="I29:I34"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="F29:F34"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="I12:I18"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="A7:A8"/>
@@ -2590,6 +2542,70 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assignments/Lab1_Tables.xlsx
+++ b/assignments/Lab1_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18165\Documents\R\Lab\biostatlab\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFA2418-209D-4C46-9C86-9F2DA59B39A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBFA3B1-A45A-4411-BDE5-7D8302F8ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{88FCE164-9CAB-442C-BF1F-7B59EF5D0E6A}"/>
   </bookViews>
@@ -1166,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1341,18 +1341,36 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1362,15 +1380,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1380,14 +1389,8 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1835,10 +1838,10 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2014,44 +2017,44 @@
       <c r="A10" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="70" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="9" t="s">
+      <c r="D10" s="60"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="63"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="55"/>
-      <c r="B12" s="66"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
@@ -2065,75 +2068,75 @@
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="58"/>
-      <c r="F13" s="73"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="58"/>
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="55"/>
@@ -2143,7 +2146,7 @@
       </c>
       <c r="D19" s="53"/>
       <c r="E19" s="59"/>
-      <c r="F19" s="75"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="59"/>
       <c r="H19" s="53"/>
       <c r="I19" s="53"/>
@@ -2267,44 +2270,44 @@
       <c r="A27" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="70" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
-      <c r="B28" s="65"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="55"/>
-      <c r="B29" s="66"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="54" t="s">
@@ -2324,56 +2327,56 @@
       <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
     </row>
     <row r="32" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
     </row>
     <row r="34" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="55"/>
@@ -2411,15 +2414,15 @@
       <c r="I37" s="52"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
-      <c r="B38" s="62"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="55"/>
@@ -2526,6 +2529,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H30:H35"/>
+    <mergeCell ref="I30:I35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="D30:D35"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F35"/>
+    <mergeCell ref="G30:G35"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="F13:F19"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="A7:A8"/>
@@ -2542,70 +2609,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="F13:F19"/>
-    <mergeCell ref="G13:G19"/>
-    <mergeCell ref="H13:H19"/>
-    <mergeCell ref="I13:I19"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="I30:I35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F35"/>
-    <mergeCell ref="G30:G35"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
